--- a/biology/Histoire de la zoologie et de la botanique/James_Macfadyen/James_Macfadyen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Macfadyen/James_Macfadyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Macfadyen est un botaniste écossais, né en 1799 à Glasgow et mort en 1850 à la Jamaïque.
 Il obtint un titre de docteur en médecine en 1821-1822. Il devint membre de la Société linnéenne de Londres en 1838. Ce fut le botaniste de la colonie de la Jamaïque de 1826 à 1828 où il établit un jardin botanique. Macfadyen fit paraître Flora Jamaica (1837) mais seul le premier tome parut ainsi que Description of Nelumbium jamaicense (1847).
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists including Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis and The Natural History Museum (Londres).</t>
         </is>
